--- a/ULM/CIC/Documents/CIC document.xlsx
+++ b/ULM/CIC/Documents/CIC document.xlsx
@@ -302,13 +302,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -366,13 +366,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -430,13 +430,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -488,16 +488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -506,8 +506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5838825" y="4629150"/>
-          <a:ext cx="1228725" cy="304800"/>
+          <a:off x="11944350" y="5353050"/>
+          <a:ext cx="1228725" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -543,8 +543,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>    MFEX</a:t>
-          </a:r>
+            <a:t>    MFEX: Mutual</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Fund Exchange</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -552,28 +557,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>404813</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6453188" y="2876550"/>
+          <a:off x="12558713" y="3543300"/>
           <a:ext cx="47625" cy="1752600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -603,13 +605,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -666,13 +668,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>176213</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>404813</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -717,13 +719,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -781,13 +783,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -832,13 +834,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -898,13 +900,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -962,13 +964,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1031,13 +1033,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -1082,13 +1084,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1133,16 +1135,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1151,7 +1153,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12668250" y="4048125"/>
+          <a:off x="12849225" y="4019550"/>
           <a:ext cx="7639050" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1200,14 +1202,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1221,8 +1223,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11753850" y="4191000"/>
-          <a:ext cx="914400" cy="361950"/>
+          <a:off x="11753850" y="4162425"/>
+          <a:ext cx="1095375" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1251,13 +1253,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -1317,19 +1319,22 @@
         <a:p>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>571499</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
@@ -1370,6 +1375,2027 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12801601" y="5772150"/>
+          <a:ext cx="1847850" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>ULM system works in 2 ways</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11753850" y="4552950"/>
+          <a:ext cx="1047751" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19992976" y="5772150"/>
+          <a:ext cx="933450" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>1. Batches</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20050126" y="6276975"/>
+          <a:ext cx="1181100" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. Web services</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19526251" y="5915025"/>
+          <a:ext cx="523875" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19526251" y="5915025"/>
+          <a:ext cx="466725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21621751" y="6134100"/>
+          <a:ext cx="4924424" cy="542926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Mainely  used for Creating, updating and deleting the date like Funds, Schemes, Universes, Profiles and Accounts and performing Fund switch</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="21231226" y="6405563"/>
+          <a:ext cx="390525" cy="14287"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextBox 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21174075" y="5657850"/>
+          <a:ext cx="4924424" cy="542926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Used for creation of account portfolio, scaling down, Re-balancing is concerned that is mainely performed by night batches</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="3"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20926426" y="5915025"/>
+          <a:ext cx="247649" cy="14288"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877299" y="6267451"/>
+          <a:ext cx="7410451" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- The interaction bet CIC-MFEX is designed  on web service calls. MFEX has exposed web services to CIC and every day CIC uses these diff . web service interface for communication. For this CIC has used Java EE 6 web service technology. this tech includes  - JAX-WS (Java API for Xml  Web services) and SOAP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- JAX-WS is used to communicate with MFEX and REST is used y CIC to comm. with CIC DB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- CIC sends trades  and migration projections (transfer) to MFEX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- CIC receives order confirmations, executed trades, fund data, fund prices, payments and stock data back</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- TradingServiceSoap.java is the interface used by CIC controller and task to comm. with MFEX. This interface contains the methods exposed by MFEX and the result return type.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Arrow Connector 64"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12558713" y="5867400"/>
+          <a:ext cx="23812" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="TextBox 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934449" y="8048625"/>
+          <a:ext cx="6238876" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MFEX web services are divided into following categories:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="TextBox 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57151" y="9410699"/>
+          <a:ext cx="5162550" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. New Order</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Transmission of mutual fund orders to MFEX (BUY/SELL)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- This WS is used to  send orders to MFEX. Orders has to be MFEX tradable. It is started by clicking 'Send and Confirm Order'  btn from trading web. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For complex funds all the underlying funds are accumulated and send to MFEX as a single order </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Arrow Connector 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="72" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7515226" y="8372475"/>
+          <a:ext cx="4538661" cy="1038224"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="TextBox 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4943475" y="10982324"/>
+          <a:ext cx="5543550" cy="2305051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. Order Confirmation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Daily order confirmations.  All new orders,  both web orders and orders in new order file, not included in a previous confirmation file are included.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Confirmation that MFEX has received the orders send by the distributor. All new orders sent on trading web service for the requested day are included. Order confirmation web service is called  when the button 'Send and confirm order' is hit from trading web in CIC app.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- New orders are send to MFEX in steps,  first non confirmed orders from CIC DB is pulled for given portfolio on given date(Orders with accepted col as null means not confirmed orders). Then this WS is called which will return the set of records on orders send on given date with confirmation details. Then order is compared bet order records from MFEX and CIC.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>If Matched then col 'Accepted' is set to true and is saved in CIC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7715250" y="8372475"/>
+          <a:ext cx="4338637" cy="2609849"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="TextBox 84"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506201" y="9734550"/>
+          <a:ext cx="6276974" cy="4229100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. Execution Report</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Confirmation of executed orders ( Contract note received from fund company/Transfer Agent)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Confirm orders are processed by MFEX and ready to be impored to CIC.  It return the orders with prices which are then saved in CIC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. Payment In:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Used for Payments from Distributor to MFEX following subscriptions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Subscription is the amt paid to MFEX by distributrs here in this case by CIC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Once CIC receives 'Payments in' details from MFEX, it extract all payment details from CIC DB for given portfolio id on given date and checks whether the payments already exists by comparing the order id. if payment details already exists then it updates the values otherwise create ne w record.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. Payment Out:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Used for payments from MFEX to customer following redemptions.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Redemption is the amt paid to diff distributor by MFEX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- If there are not redemptions, orders to be paid an empty result is output.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Once CIC receives 'payments out' details from MFEX it extract all payment out details from CIC DB for given portfolio id on given date and checks whether the payments already exists by comparing the order id. If payment already exists then it updates the values other wise creates new record.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="85" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12053887" y="8372475"/>
+          <a:ext cx="2590801" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="TextBox 90"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18430875" y="9782175"/>
+          <a:ext cx="6276974" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6. Holdins</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- All funds where the distributor has holdings are listed per distributor account. The holdings in the list reflect the executed holdings and the value at end of requested day.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- These holdings are used to find out the deviation in fund shares bet MFEX and CIC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7. Market Data:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- It imports market data pricing file</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- This web service call is made to import prices for fund from MFEX and set NAV price in fund currency</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8. Fund Fact in Fund Information:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- The info represent the current status for the fund</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-Fund details are subject to changed by MFEX as per the market requirements. So every day CIC imports static data from MFEX and update the fund information as per the change.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9. Dividend:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- It provides detailed info regarding executed dividends</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- All dividends in shares executed on the day requested and with a value date in the past are included.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="91" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12053887" y="8372475"/>
+          <a:ext cx="9515475" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="TextBox 95"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18459450" y="13068300"/>
+          <a:ext cx="6276974" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10 Transfer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Detailed info regarding  executed transfer orders</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- All executed and rejected transfer orders as well as executed balancing orders, during the requested day are included.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>11. Transfer in:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Transmission of orders to MFEX(Transfer In)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- This web service exports ne transfer to MFEX. Transfer order works only for Sweden portfolio bcz in sweden the transfer of shares from one fund to other is allowed. So these has to be updated in MFEX. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12. Transfer Status:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Delivery of status for transfer orders</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- The info is the current status of each open transfer order from mfex</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Diff order status for transfer are COMPLETE APPLICATION FORM, ERROR, INCOMPLETE APPLICATION FORM, NE, REJECTED, TRNSFER IN COMPLETED,  TRANSFER IN ORDER RECEIVED, TRANSFER IN ORDER SENT </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1797,8 +3823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q18" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M26" workbookViewId="0">
+      <selection activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
